--- a/Сравнение22.xlsx
+++ b/Сравнение22.xlsx
@@ -7536,7 +7536,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8095,7 +8094,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8907,7 +8905,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9491,7 +9488,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10051,7 +10047,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10618,7 +10613,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10938,7 +10932,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11517,7 +11510,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12090,7 +12082,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12657,7 +12648,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -47440,10 +47430,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AA48"/>
+  <dimension ref="B1:AC48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X36" sqref="X36"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC7" sqref="AC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -47464,7 +47454,7 @@
     <col min="23" max="23" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" ht="15.75" thickBot="1">
+    <row r="1" spans="2:29" ht="15.75" thickBot="1">
       <c r="J1" s="231" t="s">
         <v>734</v>
       </c>
@@ -47474,7 +47464,7 @@
         <v>72.55</v>
       </c>
     </row>
-    <row r="2" spans="2:27" ht="75.75" thickBot="1">
+    <row r="2" spans="2:29" ht="75.75" thickBot="1">
       <c r="B2" s="220" t="s">
         <v>698</v>
       </c>
@@ -47514,7 +47504,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="3" spans="2:27" ht="15.75" thickBot="1">
+    <row r="3" spans="2:29" ht="15.75" thickBot="1">
       <c r="B3" s="38">
         <v>300</v>
       </c>
@@ -47582,7 +47572,7 @@
         <v>9221</v>
       </c>
     </row>
-    <row r="4" spans="2:27" ht="15.75" thickBot="1">
+    <row r="4" spans="2:29" ht="15.75" thickBot="1">
       <c r="B4" s="38">
         <v>300</v>
       </c>
@@ -47647,7 +47637,7 @@
         <v>13720</v>
       </c>
     </row>
-    <row r="5" spans="2:27" ht="15.75" thickBot="1">
+    <row r="5" spans="2:29" ht="15.75" thickBot="1">
       <c r="B5" s="38">
         <v>300</v>
       </c>
@@ -47712,7 +47702,7 @@
         <v>14420</v>
       </c>
     </row>
-    <row r="6" spans="2:27">
+    <row r="6" spans="2:29">
       <c r="B6" s="38">
         <v>300</v>
       </c>
@@ -47770,8 +47760,12 @@
         <f t="shared" si="4"/>
         <v>15807</v>
       </c>
-    </row>
-    <row r="7" spans="2:27">
+      <c r="AC6">
+        <f>SUM(AA3:AA46)</f>
+        <v>1807130</v>
+      </c>
+    </row>
+    <row r="7" spans="2:29">
       <c r="B7" s="38">
         <v>300</v>
       </c>
@@ -47819,7 +47813,7 @@
         <v>18575</v>
       </c>
     </row>
-    <row r="8" spans="2:27" ht="15.75" thickBot="1">
+    <row r="8" spans="2:29" ht="15.75" thickBot="1">
       <c r="B8" s="38">
         <v>400</v>
       </c>
@@ -47878,7 +47872,7 @@
         <v>15807</v>
       </c>
     </row>
-    <row r="9" spans="2:27" ht="15.75" thickBot="1">
+    <row r="9" spans="2:29" ht="15.75" thickBot="1">
       <c r="B9" s="38">
         <v>400</v>
       </c>
@@ -47955,7 +47949,7 @@
         <v>18575</v>
       </c>
     </row>
-    <row r="10" spans="2:27" ht="15.75" thickBot="1">
+    <row r="10" spans="2:29" ht="15.75" thickBot="1">
       <c r="B10" s="38">
         <v>400</v>
       </c>
@@ -48032,7 +48026,7 @@
         <v>20941</v>
       </c>
     </row>
-    <row r="11" spans="2:27" ht="15.75" thickBot="1">
+    <row r="11" spans="2:29" ht="15.75" thickBot="1">
       <c r="B11" s="38">
         <v>400</v>
       </c>
@@ -48091,7 +48085,7 @@
         <v>24687</v>
       </c>
     </row>
-    <row r="12" spans="2:27" ht="15.75" thickBot="1">
+    <row r="12" spans="2:29" ht="15.75" thickBot="1">
       <c r="B12" s="38">
         <v>500</v>
       </c>
@@ -48156,7 +48150,7 @@
         <v>17411</v>
       </c>
     </row>
-    <row r="13" spans="2:27">
+    <row r="13" spans="2:29">
       <c r="B13" s="38">
         <v>500</v>
       </c>
@@ -48215,7 +48209,7 @@
         <v>20770</v>
       </c>
     </row>
-    <row r="14" spans="2:27">
+    <row r="14" spans="2:29">
       <c r="B14" s="38">
         <v>500</v>
       </c>
@@ -48274,7 +48268,7 @@
         <v>22924</v>
       </c>
     </row>
-    <row r="15" spans="2:27">
+    <row r="15" spans="2:29">
       <c r="B15" s="38">
         <v>500</v>
       </c>
@@ -48333,7 +48327,7 @@
         <v>25072</v>
       </c>
     </row>
-    <row r="16" spans="2:27">
+    <row r="16" spans="2:29">
       <c r="B16" s="38">
         <v>500</v>
       </c>

--- a/Сравнение22.xlsx
+++ b/Сравнение22.xlsx
@@ -7536,6 +7536,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8094,6 +8095,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8905,6 +8907,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9488,6 +9491,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10047,6 +10051,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10613,6 +10618,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10932,6 +10938,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11510,6 +11517,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12082,6 +12090,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12648,6 +12657,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -47430,10 +47440,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AC48"/>
+  <dimension ref="B1:AA48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC7" sqref="AC7"/>
+    <sheetView tabSelected="1" topLeftCell="M4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X36" sqref="X36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -47454,7 +47464,7 @@
     <col min="23" max="23" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" ht="15.75" thickBot="1">
+    <row r="1" spans="2:27" ht="15.75" thickBot="1">
       <c r="J1" s="231" t="s">
         <v>734</v>
       </c>
@@ -47464,7 +47474,7 @@
         <v>72.55</v>
       </c>
     </row>
-    <row r="2" spans="2:29" ht="75.75" thickBot="1">
+    <row r="2" spans="2:27" ht="75.75" thickBot="1">
       <c r="B2" s="220" t="s">
         <v>698</v>
       </c>
@@ -47504,7 +47514,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="3" spans="2:29" ht="15.75" thickBot="1">
+    <row r="3" spans="2:27" ht="15.75" thickBot="1">
       <c r="B3" s="38">
         <v>300</v>
       </c>
@@ -47572,7 +47582,7 @@
         <v>9221</v>
       </c>
     </row>
-    <row r="4" spans="2:29" ht="15.75" thickBot="1">
+    <row r="4" spans="2:27" ht="15.75" thickBot="1">
       <c r="B4" s="38">
         <v>300</v>
       </c>
@@ -47637,7 +47647,7 @@
         <v>13720</v>
       </c>
     </row>
-    <row r="5" spans="2:29" ht="15.75" thickBot="1">
+    <row r="5" spans="2:27" ht="15.75" thickBot="1">
       <c r="B5" s="38">
         <v>300</v>
       </c>
@@ -47702,7 +47712,7 @@
         <v>14420</v>
       </c>
     </row>
-    <row r="6" spans="2:29">
+    <row r="6" spans="2:27">
       <c r="B6" s="38">
         <v>300</v>
       </c>
@@ -47760,12 +47770,8 @@
         <f t="shared" si="4"/>
         <v>15807</v>
       </c>
-      <c r="AC6">
-        <f>SUM(AA3:AA46)</f>
-        <v>1807130</v>
-      </c>
-    </row>
-    <row r="7" spans="2:29">
+    </row>
+    <row r="7" spans="2:27">
       <c r="B7" s="38">
         <v>300</v>
       </c>
@@ -47813,7 +47819,7 @@
         <v>18575</v>
       </c>
     </row>
-    <row r="8" spans="2:29" ht="15.75" thickBot="1">
+    <row r="8" spans="2:27" ht="15.75" thickBot="1">
       <c r="B8" s="38">
         <v>400</v>
       </c>
@@ -47872,7 +47878,7 @@
         <v>15807</v>
       </c>
     </row>
-    <row r="9" spans="2:29" ht="15.75" thickBot="1">
+    <row r="9" spans="2:27" ht="15.75" thickBot="1">
       <c r="B9" s="38">
         <v>400</v>
       </c>
@@ -47949,7 +47955,7 @@
         <v>18575</v>
       </c>
     </row>
-    <row r="10" spans="2:29" ht="15.75" thickBot="1">
+    <row r="10" spans="2:27" ht="15.75" thickBot="1">
       <c r="B10" s="38">
         <v>400</v>
       </c>
@@ -48026,7 +48032,7 @@
         <v>20941</v>
       </c>
     </row>
-    <row r="11" spans="2:29" ht="15.75" thickBot="1">
+    <row r="11" spans="2:27" ht="15.75" thickBot="1">
       <c r="B11" s="38">
         <v>400</v>
       </c>
@@ -48085,7 +48091,7 @@
         <v>24687</v>
       </c>
     </row>
-    <row r="12" spans="2:29" ht="15.75" thickBot="1">
+    <row r="12" spans="2:27" ht="15.75" thickBot="1">
       <c r="B12" s="38">
         <v>500</v>
       </c>
@@ -48150,7 +48156,7 @@
         <v>17411</v>
       </c>
     </row>
-    <row r="13" spans="2:29">
+    <row r="13" spans="2:27">
       <c r="B13" s="38">
         <v>500</v>
       </c>
@@ -48209,7 +48215,7 @@
         <v>20770</v>
       </c>
     </row>
-    <row r="14" spans="2:29">
+    <row r="14" spans="2:27">
       <c r="B14" s="38">
         <v>500</v>
       </c>
@@ -48268,7 +48274,7 @@
         <v>22924</v>
       </c>
     </row>
-    <row r="15" spans="2:29">
+    <row r="15" spans="2:27">
       <c r="B15" s="38">
         <v>500</v>
       </c>
@@ -48327,7 +48333,7 @@
         <v>25072</v>
       </c>
     </row>
-    <row r="16" spans="2:29">
+    <row r="16" spans="2:27">
       <c r="B16" s="38">
         <v>500</v>
       </c>
